--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="H2">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="I2">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="J2">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.242421</v>
+        <v>0.04270366666666667</v>
       </c>
       <c r="N2">
-        <v>0.727263</v>
+        <v>0.128111</v>
       </c>
       <c r="O2">
-        <v>0.05259686455245877</v>
+        <v>0.006976065356144797</v>
       </c>
       <c r="P2">
-        <v>0.05259686455245876</v>
+        <v>0.007176859668027315</v>
       </c>
       <c r="Q2">
-        <v>0.839165745705</v>
+        <v>0.1610055632605556</v>
       </c>
       <c r="R2">
-        <v>7.552491711345</v>
+        <v>1.449050069345</v>
       </c>
       <c r="S2">
-        <v>0.003480197833651158</v>
+        <v>0.0004255580939552697</v>
       </c>
       <c r="T2">
-        <v>0.003541850097840539</v>
+        <v>0.0004396279927688594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="H3">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="I3">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="J3">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07261366666666666</v>
+        <v>0.07261366666666667</v>
       </c>
       <c r="N3">
         <v>0.217841</v>
       </c>
       <c r="O3">
-        <v>0.01575462187815435</v>
+        <v>0.01186215901248089</v>
       </c>
       <c r="P3">
-        <v>0.01575462187815435</v>
+        <v>0.01220359131489676</v>
       </c>
       <c r="Q3">
-        <v>0.2513598316016666</v>
+        <v>0.2737751864105556</v>
       </c>
       <c r="R3">
-        <v>2.262238484415</v>
+        <v>2.463976677695</v>
       </c>
       <c r="S3">
-        <v>0.001042442385052453</v>
+        <v>0.000723622489445168</v>
       </c>
       <c r="T3">
-        <v>0.001060909419513547</v>
+        <v>0.0007475470613199578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="H4">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="I4">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="J4">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.127632</v>
+        <v>4.695177999999999</v>
       </c>
       <c r="N4">
-        <v>9.382896000000001</v>
+        <v>14.085534</v>
       </c>
       <c r="O4">
-        <v>0.6785865773754572</v>
+        <v>0.7670036590160066</v>
       </c>
       <c r="P4">
-        <v>0.6785865773754572</v>
+        <v>0.7890805697186616</v>
       </c>
       <c r="Q4">
-        <v>10.82662656936</v>
+        <v>17.70222178810333</v>
       </c>
       <c r="R4">
-        <v>97.43963912424</v>
+        <v>159.31999609293</v>
       </c>
       <c r="S4">
-        <v>0.044900310248939</v>
+        <v>0.04678921405173751</v>
       </c>
       <c r="T4">
-        <v>0.04569572646432941</v>
+        <v>0.04833616972389197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="H5">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="I5">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="J5">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.166372333333333</v>
+        <v>0.5137985</v>
       </c>
       <c r="N5">
-        <v>3.499117</v>
+        <v>1.027597</v>
       </c>
       <c r="O5">
-        <v>0.2530619361939296</v>
+        <v>0.08393405521514537</v>
       </c>
       <c r="P5">
-        <v>0.2530619361939296</v>
+        <v>0.05756663724649613</v>
       </c>
       <c r="Q5">
-        <v>4.037520300928334</v>
+        <v>1.937173628219167</v>
       </c>
       <c r="R5">
-        <v>36.337682708355</v>
+        <v>11.623041769315</v>
       </c>
       <c r="S5">
-        <v>0.01674445063627868</v>
+        <v>0.005120195229224891</v>
       </c>
       <c r="T5">
-        <v>0.01704108127156956</v>
+        <v>0.003526320194872428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.998462333333334</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="H6">
-        <v>11.995387</v>
+        <v>11.310895</v>
       </c>
       <c r="I6">
-        <v>0.07642924626252497</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="J6">
-        <v>0.07778320264879995</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.242421</v>
+        <v>0.7971606666666666</v>
       </c>
       <c r="N6">
-        <v>0.727263</v>
+        <v>2.391482</v>
       </c>
       <c r="O6">
-        <v>0.05259686455245877</v>
+        <v>0.1302240614002222</v>
       </c>
       <c r="P6">
-        <v>0.05259686455245876</v>
+        <v>0.1339723420519182</v>
       </c>
       <c r="Q6">
-        <v>0.9693112373090002</v>
+        <v>3.005533532932222</v>
       </c>
       <c r="R6">
-        <v>8.723801135781001</v>
+        <v>27.04980179639</v>
       </c>
       <c r="S6">
-        <v>0.004019938713516541</v>
+        <v>0.007944005757884461</v>
       </c>
       <c r="T6">
-        <v>0.004091152574175382</v>
+        <v>0.00820665228905291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>11.995387</v>
       </c>
       <c r="I7">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="J7">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.07261366666666666</v>
+        <v>0.04270366666666667</v>
       </c>
       <c r="N7">
-        <v>0.217841</v>
+        <v>0.128111</v>
       </c>
       <c r="O7">
-        <v>0.01575462187815435</v>
+        <v>0.006976065356144797</v>
       </c>
       <c r="P7">
-        <v>0.01575462187815435</v>
+        <v>0.007176859668027315</v>
       </c>
       <c r="Q7">
-        <v>0.2903430110518889</v>
+        <v>0.1707490026618889</v>
       </c>
       <c r="R7">
-        <v>2.613087099467</v>
+        <v>1.536741023957</v>
       </c>
       <c r="S7">
-        <v>0.001204113875298422</v>
+        <v>0.0004513112382332098</v>
       </c>
       <c r="T7">
-        <v>0.001225444946203697</v>
+        <v>0.0004662325933797167</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>11.995387</v>
       </c>
       <c r="I8">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="J8">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.127632</v>
+        <v>0.07261366666666667</v>
       </c>
       <c r="N8">
-        <v>9.382896000000001</v>
+        <v>0.217841</v>
       </c>
       <c r="O8">
-        <v>0.6785865773754572</v>
+        <v>0.01186215901248089</v>
       </c>
       <c r="P8">
-        <v>0.6785865773754572</v>
+        <v>0.01220359131489676</v>
       </c>
       <c r="Q8">
-        <v>12.505718744528</v>
+        <v>0.2903430110518889</v>
       </c>
       <c r="R8">
-        <v>112.551468700752</v>
+        <v>2.613087099467</v>
       </c>
       <c r="S8">
-        <v>0.05186386063267277</v>
+        <v>0.0007674133481743227</v>
       </c>
       <c r="T8">
-        <v>0.05278263726275076</v>
+        <v>0.0007927857434133749</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>11.995387</v>
       </c>
       <c r="I9">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="J9">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.166372333333333</v>
+        <v>4.695177999999999</v>
       </c>
       <c r="N9">
-        <v>3.499117</v>
+        <v>14.085534</v>
       </c>
       <c r="O9">
-        <v>0.2530619361939296</v>
+        <v>0.7670036590160066</v>
       </c>
       <c r="P9">
-        <v>0.2530619361939296</v>
+        <v>0.7890805697186616</v>
       </c>
       <c r="Q9">
-        <v>4.663695841475445</v>
+        <v>18.77349238129533</v>
       </c>
       <c r="R9">
-        <v>41.973262573279</v>
+        <v>168.961431431658</v>
       </c>
       <c r="S9">
-        <v>0.01934133304103723</v>
+        <v>0.0496207178986658</v>
       </c>
       <c r="T9">
-        <v>0.01968396786567011</v>
+        <v>0.05126128939714915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.74728766666667</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="H10">
-        <v>65.241863</v>
+        <v>11.995387</v>
       </c>
       <c r="I10">
-        <v>0.4156920000874432</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="J10">
-        <v>0.4230560507063459</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.242421</v>
+        <v>0.5137985</v>
       </c>
       <c r="N10">
-        <v>0.727263</v>
+        <v>1.027597</v>
       </c>
       <c r="O10">
-        <v>0.05259686455245877</v>
+        <v>0.08393405521514537</v>
       </c>
       <c r="P10">
-        <v>0.05259686455245876</v>
+        <v>0.05756663724649613</v>
       </c>
       <c r="Q10">
-        <v>5.271999223440999</v>
+        <v>2.054403949173167</v>
       </c>
       <c r="R10">
-        <v>47.44799301096899</v>
+        <v>12.326423695039</v>
       </c>
       <c r="S10">
-        <v>0.02186409582413993</v>
+        <v>0.005430049813927747</v>
       </c>
       <c r="T10">
-        <v>0.0222514217970998</v>
+        <v>0.003739719573332632</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.74728766666667</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="H11">
-        <v>65.241863</v>
+        <v>11.995387</v>
       </c>
       <c r="I11">
-        <v>0.4156920000874432</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="J11">
-        <v>0.4230560507063459</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07261366666666666</v>
+        <v>0.7971606666666666</v>
       </c>
       <c r="N11">
-        <v>0.217841</v>
+        <v>2.391482</v>
       </c>
       <c r="O11">
-        <v>0.01575462187815435</v>
+        <v>0.1302240614002222</v>
       </c>
       <c r="P11">
-        <v>0.01575462187815435</v>
+        <v>0.1339723420519182</v>
       </c>
       <c r="Q11">
-        <v>1.579150297531444</v>
+        <v>3.187416899281556</v>
       </c>
       <c r="R11">
-        <v>14.212352677783</v>
+        <v>28.686752093534</v>
       </c>
       <c r="S11">
-        <v>0.006549070279151374</v>
+        <v>0.008424746529434887</v>
       </c>
       <c r="T11">
-        <v>0.006665088112143775</v>
+        <v>0.00870328742169612</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="H12">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="I12">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="J12">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>3.127632</v>
+        <v>0.04270366666666667</v>
       </c>
       <c r="N12">
-        <v>9.382896000000001</v>
+        <v>0.128111</v>
       </c>
       <c r="O12">
-        <v>0.6785865773754572</v>
+        <v>0.006976065356144797</v>
       </c>
       <c r="P12">
-        <v>0.6785865773754572</v>
+        <v>0.007176859668027315</v>
       </c>
       <c r="Q12">
-        <v>68.017512819472</v>
+        <v>1.341213802328556</v>
       </c>
       <c r="R12">
-        <v>612.157615375248</v>
+        <v>12.070924220957</v>
       </c>
       <c r="S12">
-        <v>0.2820830115816964</v>
+        <v>0.003544997935144459</v>
       </c>
       <c r="T12">
-        <v>0.2870801574867972</v>
+        <v>0.003662203465835433</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="H13">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="I13">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="J13">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.166372333333333</v>
+        <v>0.07261366666666667</v>
       </c>
       <c r="N13">
-        <v>3.499117</v>
+        <v>0.217841</v>
       </c>
       <c r="O13">
-        <v>0.2530619361939296</v>
+        <v>0.01186215901248089</v>
       </c>
       <c r="P13">
-        <v>0.2530619361939296</v>
+        <v>0.01220359131489676</v>
       </c>
       <c r="Q13">
-        <v>25.36543465944122</v>
+        <v>2.280611000718556</v>
       </c>
       <c r="R13">
-        <v>228.288911934971</v>
+        <v>20.525499006467</v>
       </c>
       <c r="S13">
-        <v>0.1051958224024555</v>
+        <v>0.00602794369874409</v>
       </c>
       <c r="T13">
-        <v>0.1070593833103052</v>
+        <v>0.006227240948872903</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.731955</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="H14">
-        <v>5.46391</v>
+        <v>94.222387</v>
       </c>
       <c r="I14">
-        <v>0.0522203897564463</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="J14">
-        <v>0.03543032157151783</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.242421</v>
+        <v>4.695177999999999</v>
       </c>
       <c r="N14">
-        <v>0.727263</v>
+        <v>14.085534</v>
       </c>
       <c r="O14">
-        <v>0.05259686455245877</v>
+        <v>0.7670036590160066</v>
       </c>
       <c r="P14">
-        <v>0.05259686455245876</v>
+        <v>0.7890805697186616</v>
       </c>
       <c r="Q14">
-        <v>0.6622832630550001</v>
+        <v>147.4636261832953</v>
       </c>
       <c r="R14">
-        <v>3.97369957833</v>
+        <v>1327.172635649658</v>
       </c>
       <c r="S14">
-        <v>0.002746628766896411</v>
+        <v>0.3897650392660041</v>
       </c>
       <c r="T14">
-        <v>0.001863523824747181</v>
+        <v>0.4026515399375762</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>31.40746233333333</v>
+      </c>
+      <c r="H15">
+        <v>94.222387</v>
+      </c>
+      <c r="I15">
+        <v>0.5081658147055464</v>
+      </c>
+      <c r="J15">
+        <v>0.5102793749960634</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2.731955</v>
-      </c>
-      <c r="H15">
-        <v>5.46391</v>
-      </c>
-      <c r="I15">
-        <v>0.0522203897564463</v>
-      </c>
-      <c r="J15">
-        <v>0.03543032157151783</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.07261366666666666</v>
+        <v>0.5137985</v>
       </c>
       <c r="N15">
-        <v>0.217841</v>
+        <v>1.027597</v>
       </c>
       <c r="O15">
-        <v>0.01575462187815435</v>
+        <v>0.08393405521514537</v>
       </c>
       <c r="P15">
-        <v>0.01575462187815435</v>
+        <v>0.05756663724649613</v>
       </c>
       <c r="Q15">
-        <v>0.1983772697183333</v>
+        <v>16.13710703567317</v>
       </c>
       <c r="R15">
-        <v>1.19026361831</v>
+        <v>96.82264221403901</v>
       </c>
       <c r="S15">
-        <v>0.0008227124949426563</v>
+        <v>0.04265241754994466</v>
       </c>
       <c r="T15">
-        <v>0.0005581913193806789</v>
+        <v>0.02937506767476714</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>31.40746233333333</v>
+      </c>
+      <c r="H16">
+        <v>94.222387</v>
+      </c>
+      <c r="I16">
+        <v>0.5081658147055464</v>
+      </c>
+      <c r="J16">
+        <v>0.5102793749960634</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.731955</v>
-      </c>
-      <c r="H16">
-        <v>5.46391</v>
-      </c>
-      <c r="I16">
-        <v>0.0522203897564463</v>
-      </c>
-      <c r="J16">
-        <v>0.03543032157151783</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>3.127632</v>
+        <v>0.7971606666666666</v>
       </c>
       <c r="N16">
-        <v>9.382896000000001</v>
+        <v>2.391482</v>
       </c>
       <c r="O16">
-        <v>0.6785865773754572</v>
+        <v>0.1302240614002222</v>
       </c>
       <c r="P16">
-        <v>0.6785865773754572</v>
+        <v>0.1339723420519182</v>
       </c>
       <c r="Q16">
-        <v>8.544549880560002</v>
+        <v>25.03679361194822</v>
       </c>
       <c r="R16">
-        <v>51.26729928336</v>
+        <v>225.331142507534</v>
       </c>
       <c r="S16">
-        <v>0.03543605555403928</v>
+        <v>0.06617541625570902</v>
       </c>
       <c r="T16">
-        <v>0.02404254065052812</v>
+        <v>0.06836332296901165</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="H17">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="I17">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="J17">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>1.166372333333333</v>
+        <v>0.04270366666666667</v>
       </c>
       <c r="N17">
-        <v>3.499117</v>
+        <v>0.128111</v>
       </c>
       <c r="O17">
-        <v>0.2530619361939296</v>
+        <v>0.006976065356144797</v>
       </c>
       <c r="P17">
-        <v>0.2530619361939296</v>
+        <v>0.007176859668027315</v>
       </c>
       <c r="Q17">
-        <v>3.186476727911667</v>
+        <v>0.0327959676115</v>
       </c>
       <c r="R17">
-        <v>19.11886036747</v>
+        <v>0.196775805669</v>
       </c>
       <c r="S17">
-        <v>0.01321499294056795</v>
+        <v>8.66838957830465E-05</v>
       </c>
       <c r="T17">
-        <v>0.008966065776861855</v>
+        <v>5.969990568430878E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.37655766666667</v>
+        <v>0.7679895</v>
       </c>
       <c r="H18">
-        <v>61.129673</v>
+        <v>1.535979</v>
       </c>
       <c r="I18">
-        <v>0.3894909627896643</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="J18">
-        <v>0.3963908578200832</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.242421</v>
+        <v>0.07261366666666667</v>
       </c>
       <c r="N18">
-        <v>0.727263</v>
+        <v>0.217841</v>
       </c>
       <c r="O18">
-        <v>0.05259686455245877</v>
+        <v>0.01186215901248089</v>
       </c>
       <c r="P18">
-        <v>0.05259686455245876</v>
+        <v>0.01220359131489676</v>
       </c>
       <c r="Q18">
-        <v>4.939705486111</v>
+        <v>0.05576653355650001</v>
       </c>
       <c r="R18">
-        <v>44.457349374999</v>
+        <v>0.334599201339</v>
       </c>
       <c r="S18">
-        <v>0.02048600341425473</v>
+        <v>0.000147398010641355</v>
       </c>
       <c r="T18">
-        <v>0.02084891625859586</v>
+        <v>0.0001015142115366792</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.37655766666667</v>
+        <v>0.7679895</v>
       </c>
       <c r="H19">
-        <v>61.129673</v>
+        <v>1.535979</v>
       </c>
       <c r="I19">
-        <v>0.3894909627896643</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="J19">
-        <v>0.3963908578200832</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.07261366666666666</v>
+        <v>4.695177999999999</v>
       </c>
       <c r="N19">
-        <v>0.217841</v>
+        <v>14.085534</v>
       </c>
       <c r="O19">
-        <v>0.01575462187815435</v>
+        <v>0.7670036590160066</v>
       </c>
       <c r="P19">
-        <v>0.01575462187815435</v>
+        <v>0.7890805697186616</v>
       </c>
       <c r="Q19">
-        <v>1.479616566221444</v>
+        <v>3.605847404631</v>
       </c>
       <c r="R19">
-        <v>13.316549095993</v>
+        <v>21.635084427786</v>
       </c>
       <c r="S19">
-        <v>0.006136282843709448</v>
+        <v>0.009530711346446112</v>
       </c>
       <c r="T19">
-        <v>0.006244988080912654</v>
+        <v>0.006563878599910426</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.37655766666667</v>
+        <v>0.7679895</v>
       </c>
       <c r="H20">
-        <v>61.129673</v>
+        <v>1.535979</v>
       </c>
       <c r="I20">
-        <v>0.3894909627896643</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="J20">
-        <v>0.3963908578200832</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.127632</v>
+        <v>0.5137985</v>
       </c>
       <c r="N20">
-        <v>9.382896000000001</v>
+        <v>1.027597</v>
       </c>
       <c r="O20">
-        <v>0.6785865773754572</v>
+        <v>0.08393405521514537</v>
       </c>
       <c r="P20">
-        <v>0.6785865773754572</v>
+        <v>0.05756663724649613</v>
       </c>
       <c r="Q20">
-        <v>63.73037380811201</v>
+        <v>0.39459185311575</v>
       </c>
       <c r="R20">
-        <v>573.573364273008</v>
+        <v>1.578367412463</v>
       </c>
       <c r="S20">
-        <v>0.2643033393581099</v>
+        <v>0.001042956240154685</v>
       </c>
       <c r="T20">
-        <v>0.2689855155110518</v>
+        <v>0.0004788616432740253</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.37655766666667</v>
+        <v>0.7679895</v>
       </c>
       <c r="H21">
-        <v>61.129673</v>
+        <v>1.535979</v>
       </c>
       <c r="I21">
-        <v>0.3894909627896643</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="J21">
-        <v>0.3963908578200832</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.166372333333333</v>
+        <v>0.7971606666666666</v>
       </c>
       <c r="N21">
-        <v>3.499117</v>
+        <v>2.391482</v>
       </c>
       <c r="O21">
-        <v>0.2530619361939296</v>
+        <v>0.1302240614002222</v>
       </c>
       <c r="P21">
-        <v>0.2530619361939296</v>
+        <v>0.1339723420519182</v>
       </c>
       <c r="Q21">
-        <v>23.76665311097122</v>
+        <v>0.6122110218129999</v>
       </c>
       <c r="R21">
-        <v>213.899877998741</v>
+        <v>3.673266130878</v>
       </c>
       <c r="S21">
-        <v>0.09856533717359026</v>
+        <v>0.001618151263006546</v>
       </c>
       <c r="T21">
-        <v>0.1003114379695229</v>
+        <v>0.001114433966214627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>21.861327</v>
+      </c>
+      <c r="H22">
+        <v>65.58398100000001</v>
+      </c>
+      <c r="I22">
+        <v>0.3537114500877385</v>
+      </c>
+      <c r="J22">
+        <v>0.3551826046864394</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.04270366666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.128111</v>
+      </c>
+      <c r="O22">
+        <v>0.006976065356144797</v>
+      </c>
+      <c r="P22">
+        <v>0.007176859668027315</v>
+      </c>
+      <c r="Q22">
+        <v>0.9335588210990001</v>
+      </c>
+      <c r="R22">
+        <v>8.402029389891002</v>
+      </c>
+      <c r="S22">
+        <v>0.002467514193028812</v>
+      </c>
+      <c r="T22">
+        <v>0.002549095710358996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>21.861327</v>
+      </c>
+      <c r="H23">
+        <v>65.58398100000001</v>
+      </c>
+      <c r="I23">
+        <v>0.3537114500877385</v>
+      </c>
+      <c r="J23">
+        <v>0.3551826046864394</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.07261366666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.217841</v>
+      </c>
+      <c r="O23">
+        <v>0.01186215901248089</v>
+      </c>
+      <c r="P23">
+        <v>0.01220359131489676</v>
+      </c>
+      <c r="Q23">
+        <v>1.587431111669</v>
+      </c>
+      <c r="R23">
+        <v>14.286880005021</v>
+      </c>
+      <c r="S23">
+        <v>0.004195781465475951</v>
+      </c>
+      <c r="T23">
+        <v>0.00433450334975384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>21.861327</v>
+      </c>
+      <c r="H24">
+        <v>65.58398100000001</v>
+      </c>
+      <c r="I24">
+        <v>0.3537114500877385</v>
+      </c>
+      <c r="J24">
+        <v>0.3551826046864394</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.695177999999999</v>
+      </c>
+      <c r="N24">
+        <v>14.085534</v>
+      </c>
+      <c r="O24">
+        <v>0.7670036590160066</v>
+      </c>
+      <c r="P24">
+        <v>0.7890805697186616</v>
+      </c>
+      <c r="Q24">
+        <v>102.642821581206</v>
+      </c>
+      <c r="R24">
+        <v>923.7853942308541</v>
+      </c>
+      <c r="S24">
+        <v>0.2712979764531531</v>
+      </c>
+      <c r="T24">
+        <v>0.2802676920601337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21.861327</v>
+      </c>
+      <c r="H25">
+        <v>65.58398100000001</v>
+      </c>
+      <c r="I25">
+        <v>0.3537114500877385</v>
+      </c>
+      <c r="J25">
+        <v>0.3551826046864394</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5137985</v>
+      </c>
+      <c r="N25">
+        <v>1.027597</v>
+      </c>
+      <c r="O25">
+        <v>0.08393405521514537</v>
+      </c>
+      <c r="P25">
+        <v>0.05756663724649613</v>
+      </c>
+      <c r="Q25">
+        <v>11.2323170206095</v>
+      </c>
+      <c r="R25">
+        <v>67.39390212365701</v>
+      </c>
+      <c r="S25">
+        <v>0.02968843638189338</v>
+      </c>
+      <c r="T25">
+        <v>0.02044666816024989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>21.861327</v>
+      </c>
+      <c r="H26">
+        <v>65.58398100000001</v>
+      </c>
+      <c r="I26">
+        <v>0.3537114500877385</v>
+      </c>
+      <c r="J26">
+        <v>0.3551826046864394</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.7971606666666666</v>
+      </c>
+      <c r="N26">
+        <v>2.391482</v>
+      </c>
+      <c r="O26">
+        <v>0.1302240614002222</v>
+      </c>
+      <c r="P26">
+        <v>0.1339723420519182</v>
+      </c>
+      <c r="Q26">
+        <v>17.426990005538</v>
+      </c>
+      <c r="R26">
+        <v>156.842910049842</v>
+      </c>
+      <c r="S26">
+        <v>0.0460617415941873</v>
+      </c>
+      <c r="T26">
+        <v>0.04758464540594291</v>
       </c>
     </row>
   </sheetData>
